--- a/unmapped_segments.xlsx
+++ b/unmapped_segments.xlsx
@@ -23,6 +23,9 @@
     <t>rm_name</t>
   </si>
   <si>
+    <t>IN_N_NCR_GEO_NM</t>
+  </si>
+  <si>
     <t>IN_EU3_N_UPC_GEO_NM</t>
   </si>
   <si>
@@ -32,7 +35,7 @@
     <t>IN_EU1_S_BLR_SL</t>
   </si>
   <si>
-    <t>IN_N_NCR_GEO_NM</t>
+    <t>IN_W_PRG_GEO_N_NM</t>
   </si>
   <si>
     <t>IN_W_MUM_GEO_VL</t>
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t>INDIA_MISC_COMM_WEST</t>
-  </si>
-  <si>
-    <t>IN_W_PRG_GEO_N_NM</t>
   </si>
   <si>
     <t>IN_S_BLR_MM</t>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,13 +450,13 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s"/>
     </row>
@@ -468,43 +468,43 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s"/>
     </row>
@@ -516,7 +516,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s"/>
     </row>
@@ -528,123 +528,117 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
